--- a/data/Type_I_abundance_no_atypicals.xlsx
+++ b/data/Type_I_abundance_no_atypicals.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vdc825/dev/kinometree/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F195058E-34D8-BA48-BA99-633FAFACFC89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19920" yWindow="1540" windowWidth="22980" windowHeight="26800" activeTab="1"/>
+    <workbookView xWindow="19920" yWindow="1540" windowWidth="22980" windowHeight="26800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Counts" sheetId="1" r:id="rId1"/>
     <sheet name="Frequencies" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,9 +34,6 @@
     <t>Aromatic_sidechain</t>
   </si>
   <si>
-    <t>Contact_sidechain</t>
-  </si>
-  <si>
     <t>H-bond_sidechain</t>
   </si>
   <si>
@@ -43,9 +46,6 @@
     <t>Ionic_sidechain</t>
   </si>
   <si>
-    <t>Contact_backbone</t>
-  </si>
-  <si>
     <t>H-bond_backbone</t>
   </si>
   <si>
@@ -314,12 +314,18 @@
   </si>
   <si>
     <t>Matches</t>
+  </si>
+  <si>
+    <t>Proximity_sidechain</t>
+  </si>
+  <si>
+    <t>Proximity_backbone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -451,6 +457,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -775,14 +789,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="3" customWidth="1"/>
     <col min="2" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -791,7 +803,7 @@
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="151">
+    <row r="1" spans="1:10" ht="160" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -799,33 +811,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
@@ -849,9 +861,9 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -877,9 +889,9 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -903,9 +915,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
@@ -927,9 +939,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
@@ -955,9 +967,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4">
@@ -977,9 +989,9 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1005,9 +1017,9 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>232</v>
@@ -1033,9 +1045,9 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
@@ -1061,9 +1073,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
@@ -1087,9 +1099,9 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
@@ -1111,9 +1123,9 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
@@ -1137,9 +1149,9 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4">
         <v>15</v>
@@ -1165,9 +1177,9 @@
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -1189,9 +1201,9 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1213,9 +1225,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1235,9 +1247,9 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1261,9 +1273,9 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1287,9 +1299,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1309,9 +1321,9 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4">
         <v>12</v>
@@ -1337,9 +1349,9 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4">
         <v>5</v>
@@ -1363,9 +1375,9 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -1391,9 +1403,9 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -1419,9 +1431,9 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1447,9 +1459,9 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1473,9 +1485,9 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1499,9 +1511,9 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1523,9 +1535,9 @@
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="4">
         <v>14</v>
@@ -1549,9 +1561,9 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1575,9 +1587,9 @@
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1599,9 +1611,9 @@
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -1625,9 +1637,9 @@
       </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1649,9 +1661,9 @@
       </c>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1675,9 +1687,9 @@
       </c>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" s="4">
         <v>2</v>
@@ -1703,9 +1715,9 @@
       </c>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1725,9 +1737,9 @@
       </c>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1749,9 +1761,9 @@
       </c>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1775,9 +1787,9 @@
       </c>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" s="4">
         <v>4</v>
@@ -1801,9 +1813,9 @@
       </c>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" s="4">
         <v>8</v>
@@ -1829,9 +1841,9 @@
       </c>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -1857,9 +1869,9 @@
       </c>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4">
         <v>13</v>
@@ -1883,9 +1895,9 @@
       </c>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" s="4">
         <v>5</v>
@@ -1909,9 +1921,9 @@
       </c>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B44" s="4">
         <v>6</v>
@@ -1935,9 +1947,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B45" s="4">
         <v>2</v>
@@ -1959,9 +1971,9 @@
       </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B46" s="4">
         <v>257</v>
@@ -1987,9 +1999,9 @@
       </c>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -2015,9 +2027,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B48" s="4">
         <v>1217</v>
@@ -2043,9 +2055,9 @@
       </c>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" s="4">
         <v>21</v>
@@ -2071,9 +2083,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B50" s="4">
         <v>52</v>
@@ -2101,9 +2113,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B51" s="4">
         <v>2</v>
@@ -2127,9 +2139,9 @@
       </c>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B52" s="4">
         <v>5</v>
@@ -2157,9 +2169,9 @@
       </c>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -2185,9 +2197,9 @@
       </c>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -2211,9 +2223,9 @@
       </c>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B55" s="4">
         <v>16</v>
@@ -2239,9 +2251,9 @@
       </c>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56" s="4">
         <v>7</v>
@@ -2269,9 +2281,9 @@
       </c>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B57" s="4">
         <v>6</v>
@@ -2297,9 +2309,9 @@
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -2319,9 +2331,9 @@
       </c>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -2345,9 +2357,9 @@
       </c>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -2371,9 +2383,9 @@
       </c>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B61" s="4">
         <v>13</v>
@@ -2397,9 +2409,9 @@
       </c>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -2419,9 +2431,9 @@
       </c>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
@@ -2447,9 +2459,9 @@
       </c>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -2471,9 +2483,9 @@
       </c>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B65" s="4">
         <v>3</v>
@@ -2497,9 +2509,9 @@
       </c>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -2523,9 +2535,9 @@
       </c>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B67" s="4">
         <v>2</v>
@@ -2549,9 +2561,9 @@
       </c>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2571,9 +2583,9 @@
       </c>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B69" s="4">
         <v>10</v>
@@ -2599,9 +2611,9 @@
       </c>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2625,9 +2637,9 @@
       </c>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2651,9 +2663,9 @@
       </c>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2673,9 +2685,9 @@
       </c>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
@@ -2701,9 +2713,9 @@
       </c>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B74" s="4">
         <v>1</v>
@@ -2729,9 +2741,9 @@
       </c>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B75" s="4">
         <v>21</v>
@@ -2759,9 +2771,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2785,9 +2797,9 @@
       </c>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2809,9 +2821,9 @@
       </c>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B78" s="4">
         <v>74</v>
@@ -2835,9 +2847,9 @@
       </c>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2857,9 +2869,9 @@
       </c>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4">
@@ -2879,9 +2891,9 @@
       </c>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4">
@@ -2907,9 +2919,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4">
@@ -2935,9 +2947,9 @@
       </c>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B83" s="4">
         <v>37</v>
@@ -2961,9 +2973,9 @@
       </c>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4">
@@ -2985,9 +2997,9 @@
       </c>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B85" s="4">
         <v>22</v>
@@ -3013,9 +3025,9 @@
       </c>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4">
@@ -3059,14 +3071,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="10" width="6.1640625" customWidth="1"/>
@@ -3074,7 +3086,7 @@
     <col min="17" max="17" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="151">
+    <row r="1" spans="1:18" ht="160" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3082,36 +3094,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="5" t="str">
         <f>IF(ISBLANK(Counts!B2),"-",Counts!B2/2755)</f>
@@ -3158,15 +3170,15 @@
         <v>I.1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R2" s="7">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5">
         <f>IF(ISBLANK(Counts!B3),"-",Counts!B3/2755)</f>
@@ -3213,16 +3225,16 @@
         <v/>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R3">
         <f>COUNTIF(O2:O86,"*.*")</f>
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="str">
         <f>IF(ISBLANK(Counts!B4),"-",Counts!B4/2755)</f>
@@ -3269,9 +3281,9 @@
         <v>I.3</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="str">
         <f>IF(ISBLANK(Counts!B5),"-",Counts!B5/2755)</f>
@@ -3318,9 +3330,9 @@
         <v>g.l.4</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="str">
         <f>IF(ISBLANK(Counts!B6),"-",Counts!B6/2755)</f>
@@ -3367,9 +3379,9 @@
         <v>g.l.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="str">
         <f>IF(ISBLANK(Counts!B7),"-",Counts!B7/2755)</f>
@@ -3416,9 +3428,9 @@
         <v>g.l.6</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5">
         <f>IF(ISBLANK(Counts!B8),"-",Counts!B8/2755)</f>
@@ -3465,9 +3477,9 @@
         <v>g.l.7</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5">
         <f>IF(ISBLANK(Counts!B9),"-",Counts!B9/2755)</f>
@@ -3514,9 +3526,9 @@
         <v>g.l.8</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="str">
         <f>IF(ISBLANK(Counts!B10),"-",Counts!B10/2755)</f>
@@ -3563,9 +3575,9 @@
         <v>g.l.9</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="str">
         <f>IF(ISBLANK(Counts!B11),"-",Counts!B11/2755)</f>
@@ -3612,9 +3624,9 @@
         <v>II.10</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="str">
         <f>IF(ISBLANK(Counts!B12),"-",Counts!B12/2755)</f>
@@ -3661,9 +3673,9 @@
         <v>II.11</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5">
         <f>IF(ISBLANK(Counts!B13),"-",Counts!B13/2755)</f>
@@ -3710,9 +3722,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5">
         <f>IF(ISBLANK(Counts!B14),"-",Counts!B14/2755)</f>
@@ -3759,9 +3771,9 @@
         <v>II.13</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5">
         <f>IF(ISBLANK(Counts!B15),"-",Counts!B15/2755)</f>
@@ -3808,9 +3820,9 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5" t="str">
         <f>IF(ISBLANK(Counts!B16),"-",Counts!B16/2755)</f>
@@ -3857,9 +3869,9 @@
         <v>III.15</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="5" t="str">
         <f>IF(ISBLANK(Counts!B17),"-",Counts!B17/2755)</f>
@@ -3906,9 +3918,9 @@
         <v>III.16</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="5" t="str">
         <f>IF(ISBLANK(Counts!B18),"-",Counts!B18/2755)</f>
@@ -3955,9 +3967,9 @@
         <v>III.17</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="5" t="str">
         <f>IF(ISBLANK(Counts!B19),"-",Counts!B19/2755)</f>
@@ -4004,9 +4016,9 @@
         <v>III.18</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="5" t="str">
         <f>IF(ISBLANK(Counts!B20),"-",Counts!B20/2755)</f>
@@ -4053,9 +4065,9 @@
         <v>III.19</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5">
         <f>IF(ISBLANK(Counts!B21),"-",Counts!B21/2755)</f>
@@ -4102,9 +4114,9 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="5">
         <f>IF(ISBLANK(Counts!B22),"-",Counts!B22/2755)</f>
@@ -4151,9 +4163,9 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="5">
         <f>IF(ISBLANK(Counts!B23),"-",Counts!B23/2755)</f>
@@ -4200,9 +4212,9 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="5">
         <f>IF(ISBLANK(Counts!B24),"-",Counts!B24/2755)</f>
@@ -4249,9 +4261,9 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="5" t="str">
         <f>IF(ISBLANK(Counts!B25),"-",Counts!B25/2755)</f>
@@ -4298,9 +4310,9 @@
         <v>αC.24</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="5" t="str">
         <f>IF(ISBLANK(Counts!B26),"-",Counts!B26/2755)</f>
@@ -4347,9 +4359,9 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="5" t="str">
         <f>IF(ISBLANK(Counts!B27),"-",Counts!B27/2755)</f>
@@ -4396,9 +4408,9 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="5" t="str">
         <f>IF(ISBLANK(Counts!B28),"-",Counts!B28/2755)</f>
@@ -4445,9 +4457,9 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="5">
         <f>IF(ISBLANK(Counts!B29),"-",Counts!B29/2755)</f>
@@ -4494,9 +4506,9 @@
         <v>αC.28</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="5" t="str">
         <f>IF(ISBLANK(Counts!B30),"-",Counts!B30/2755)</f>
@@ -4543,9 +4555,9 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="5" t="str">
         <f>IF(ISBLANK(Counts!B31),"-",Counts!B31/2755)</f>
@@ -4592,9 +4604,9 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5">
         <f>IF(ISBLANK(Counts!B32),"-",Counts!B32/2755)</f>
@@ -4641,9 +4653,9 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" s="5" t="str">
         <f>IF(ISBLANK(Counts!B33),"-",Counts!B33/2755)</f>
@@ -4690,9 +4702,9 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" s="5" t="str">
         <f>IF(ISBLANK(Counts!B34),"-",Counts!B34/2755)</f>
@@ -4739,9 +4751,9 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" s="5">
         <f>IF(ISBLANK(Counts!B35),"-",Counts!B35/2755)</f>
@@ -4788,9 +4800,9 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" s="5" t="str">
         <f>IF(ISBLANK(Counts!B36),"-",Counts!B36/2755)</f>
@@ -4837,9 +4849,9 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" s="5" t="str">
         <f>IF(ISBLANK(Counts!B37),"-",Counts!B37/2755)</f>
@@ -4886,9 +4898,9 @@
         <v>b.l.36</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="5" t="str">
         <f>IF(ISBLANK(Counts!B38),"-",Counts!B38/2755)</f>
@@ -4935,9 +4947,9 @@
         <v>b.l.37</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" s="5">
         <f>IF(ISBLANK(Counts!B39),"-",Counts!B39/2755)</f>
@@ -4984,9 +4996,9 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" s="5">
         <f>IF(ISBLANK(Counts!B40),"-",Counts!B40/2755)</f>
@@ -5033,9 +5045,9 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" s="5">
         <f>IF(ISBLANK(Counts!B41),"-",Counts!B41/2755)</f>
@@ -5082,9 +5094,9 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" s="5">
         <f>IF(ISBLANK(Counts!B42),"-",Counts!B42/2755)</f>
@@ -5131,9 +5143,9 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" s="5">
         <f>IF(ISBLANK(Counts!B43),"-",Counts!B43/2755)</f>
@@ -5180,9 +5192,9 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B44" s="5">
         <f>IF(ISBLANK(Counts!B44),"-",Counts!B44/2755)</f>
@@ -5229,9 +5241,9 @@
         <v>V.43</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B45" s="5">
         <f>IF(ISBLANK(Counts!B45),"-",Counts!B45/2755)</f>
@@ -5278,9 +5290,9 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B46" s="5">
         <f>IF(ISBLANK(Counts!B46),"-",Counts!B46/2755)</f>
@@ -5327,9 +5339,9 @@
         <v>GK.45</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47" s="5" t="str">
         <f>IF(ISBLANK(Counts!B47),"-",Counts!B47/2755)</f>
@@ -5376,9 +5388,9 @@
         <v>hinge.46</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B48" s="5">
         <f>IF(ISBLANK(Counts!B48),"-",Counts!B48/2755)</f>
@@ -5425,9 +5437,9 @@
         <v>hinge.47</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" s="5">
         <f>IF(ISBLANK(Counts!B49),"-",Counts!B49/2755)</f>
@@ -5474,9 +5486,9 @@
         <v>hinge.48</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B50" s="5">
         <f>IF(ISBLANK(Counts!B50),"-",Counts!B50/2755)</f>
@@ -5523,9 +5535,9 @@
         <v>linker.49</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B51" s="5">
         <f>IF(ISBLANK(Counts!B51),"-",Counts!B51/2755)</f>
@@ -5572,9 +5584,9 @@
         <v>linker.50</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B52" s="5">
         <f>IF(ISBLANK(Counts!B52),"-",Counts!B52/2755)</f>
@@ -5621,9 +5633,9 @@
         <v>linker.51</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B53" s="5" t="str">
         <f>IF(ISBLANK(Counts!B53),"-",Counts!B53/2755)</f>
@@ -5670,9 +5682,9 @@
         <v>linker.52</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B54" s="5" t="str">
         <f>IF(ISBLANK(Counts!B54),"-",Counts!B54/2755)</f>
@@ -5719,9 +5731,9 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B55" s="5">
         <f>IF(ISBLANK(Counts!B55),"-",Counts!B55/2755)</f>
@@ -5768,9 +5780,9 @@
         <v>αD.54</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56" s="5">
         <f>IF(ISBLANK(Counts!B56),"-",Counts!B56/2755)</f>
@@ -5817,9 +5829,9 @@
         <v>αD.55</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B57" s="5">
         <f>IF(ISBLANK(Counts!B57),"-",Counts!B57/2755)</f>
@@ -5866,9 +5878,9 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B58" s="5" t="str">
         <f>IF(ISBLANK(Counts!B58),"-",Counts!B58/2755)</f>
@@ -5915,9 +5927,9 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" s="5" t="str">
         <f>IF(ISBLANK(Counts!B59),"-",Counts!B59/2755)</f>
@@ -5964,9 +5976,9 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60" s="5" t="str">
         <f>IF(ISBLANK(Counts!B60),"-",Counts!B60/2755)</f>
@@ -6013,9 +6025,9 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B61" s="5">
         <f>IF(ISBLANK(Counts!B61),"-",Counts!B61/2755)</f>
@@ -6062,9 +6074,9 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B62" s="5" t="str">
         <f>IF(ISBLANK(Counts!B62),"-",Counts!B62/2755)</f>
@@ -6111,9 +6123,9 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B63" s="5">
         <f>IF(ISBLANK(Counts!B63),"-",Counts!B63/2755)</f>
@@ -6160,9 +6172,9 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B64" s="5" t="str">
         <f>IF(ISBLANK(Counts!B64),"-",Counts!B64/2755)</f>
@@ -6209,9 +6221,9 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B65" s="5">
         <f>IF(ISBLANK(Counts!B65),"-",Counts!B65/2755)</f>
@@ -6258,9 +6270,9 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B66" s="5" t="str">
         <f>IF(ISBLANK(Counts!B66),"-",Counts!B66/2755)</f>
@@ -6307,9 +6319,9 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B67" s="5">
         <f>IF(ISBLANK(Counts!B67),"-",Counts!B67/2755)</f>
@@ -6356,9 +6368,9 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B68" s="5" t="str">
         <f>IF(ISBLANK(Counts!B68),"-",Counts!B68/2755)</f>
@@ -6405,9 +6417,9 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B69" s="5">
         <f>IF(ISBLANK(Counts!B69),"-",Counts!B69/2755)</f>
@@ -6454,9 +6466,9 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B70" s="5" t="str">
         <f>IF(ISBLANK(Counts!B70),"-",Counts!B70/2755)</f>
@@ -6503,9 +6515,9 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B71" s="5" t="str">
         <f>IF(ISBLANK(Counts!B71),"-",Counts!B71/2755)</f>
@@ -6552,9 +6564,9 @@
         <v>c.l.70</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B72" s="5" t="str">
         <f>IF(ISBLANK(Counts!B72),"-",Counts!B72/2755)</f>
@@ -6601,9 +6613,9 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B73" s="5">
         <f>IF(ISBLANK(Counts!B73),"-",Counts!B73/2755)</f>
@@ -6650,9 +6662,9 @@
         <v>c.l.72</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B74" s="5">
         <f>IF(ISBLANK(Counts!B74),"-",Counts!B74/2755)</f>
@@ -6699,9 +6711,9 @@
         <v>c.l.73</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B75" s="5">
         <f>IF(ISBLANK(Counts!B75),"-",Counts!B75/2755)</f>
@@ -6748,9 +6760,9 @@
         <v>c.l.74</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B76" s="5" t="str">
         <f>IF(ISBLANK(Counts!B76),"-",Counts!B76/2755)</f>
@@ -6797,9 +6809,9 @@
         <v>c.l.75</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B77" s="5" t="str">
         <f>IF(ISBLANK(Counts!B77),"-",Counts!B77/2755)</f>
@@ -6846,9 +6858,9 @@
         <v>VII.76</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B78" s="5">
         <f>IF(ISBLANK(Counts!B78),"-",Counts!B78/2755)</f>
@@ -6895,9 +6907,9 @@
         <v>VII.77</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B79" s="5" t="str">
         <f>IF(ISBLANK(Counts!B79),"-",Counts!B79/2755)</f>
@@ -6944,9 +6956,9 @@
         <v>VII.78</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B80" s="5" t="str">
         <f>IF(ISBLANK(Counts!B80),"-",Counts!B80/2755)</f>
@@ -6993,9 +7005,9 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B81" s="5" t="str">
         <f>IF(ISBLANK(Counts!B81),"-",Counts!B81/2755)</f>
@@ -7042,9 +7054,9 @@
         <v>xDFG.80</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B82" s="5" t="str">
         <f>IF(ISBLANK(Counts!B82),"-",Counts!B82/2755)</f>
@@ -7091,9 +7103,9 @@
         <v>xDFG.81</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B83" s="5">
         <f>IF(ISBLANK(Counts!B83),"-",Counts!B83/2755)</f>
@@ -7140,9 +7152,9 @@
         <v>xDFG.82</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B84" s="5" t="str">
         <f>IF(ISBLANK(Counts!B84),"-",Counts!B84/2755)</f>
@@ -7189,9 +7201,9 @@
         <v>xDFG.83</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B85" s="5">
         <f>IF(ISBLANK(Counts!B85),"-",Counts!B85/2755)</f>
@@ -7238,9 +7250,9 @@
         <v>a.l.84</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B86" s="5" t="str">
         <f>IF(ISBLANK(Counts!B86),"-",Counts!B86/2755)</f>

--- a/data/Type_I_abundance_no_atypicals.xlsx
+++ b/data/Type_I_abundance_no_atypicals.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vdc825/dev/kinometree/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Work/Papers/kinome/kinometree/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F195058E-34D8-BA48-BA99-633FAFACFC89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5065D900-2049-AD4B-86E2-9C2B31DE6657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19920" yWindow="1540" windowWidth="22980" windowHeight="26800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="460" windowWidth="22980" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Counts" sheetId="1" r:id="rId1"/>
     <sheet name="Frequencies" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="128">
   <si>
     <t>KLIFS position</t>
   </si>
@@ -320,6 +325,96 @@
   </si>
   <si>
     <t>Proximity_backbone</t>
+  </si>
+  <si>
+    <t>5dls</t>
+  </si>
+  <si>
+    <t>L15</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>very dependent on the conformation</t>
+  </si>
+  <si>
+    <t>V23</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>K38</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>E55</t>
+  </si>
+  <si>
+    <t>a bit far away for type I no?</t>
+  </si>
+  <si>
+    <t>N59</t>
+  </si>
+  <si>
+    <t>V68</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>L84</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>E85</t>
+  </si>
+  <si>
+    <t>Y86</t>
+  </si>
+  <si>
+    <t>C87</t>
+  </si>
+  <si>
+    <t>I don't understand the sidechain interactions -&gt; examples of structures here?</t>
+  </si>
+  <si>
+    <t>same, rather not directly in contact with sidechain</t>
+  </si>
+  <si>
+    <t>S88</t>
+  </si>
+  <si>
+    <t>same, example where the sidechain is in contact?</t>
   </si>
 </sst>
 </file>
@@ -790,9 +885,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -803,7 +900,7 @@
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="160" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="160" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -834,8 +931,14 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -860,8 +963,11 @@
         <v>20</v>
       </c>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -888,8 +994,11 @@
         <v>6</v>
       </c>
       <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -914,8 +1023,14 @@
       <c r="J4" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -938,8 +1053,11 @@
       <c r="J5" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -966,8 +1084,11 @@
       <c r="J6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -988,8 +1109,11 @@
         <v>735</v>
       </c>
       <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1016,8 +1140,11 @@
         <v>290</v>
       </c>
       <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1044,8 +1171,14 @@
         <v>185</v>
       </c>
       <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -1072,8 +1205,11 @@
       <c r="J10" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -1098,8 +1234,11 @@
         <v>166</v>
       </c>
       <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1122,8 +1261,14 @@
         <v>1516</v>
       </c>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
@@ -1148,8 +1293,11 @@
         <v>103</v>
       </c>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
@@ -1176,8 +1324,11 @@
         <v>23</v>
       </c>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
@@ -1200,8 +1351,11 @@
         <v>65</v>
       </c>
       <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
@@ -1224,8 +1378,14 @@
       <c r="J16" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -1246,8 +1406,11 @@
         <v>97</v>
       </c>
       <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
@@ -1272,8 +1435,14 @@
         <v>318</v>
       </c>
       <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -1298,8 +1467,11 @@
       <c r="J19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -1320,8 +1492,11 @@
         <v>15</v>
       </c>
       <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -1348,8 +1523,11 @@
         <v>38</v>
       </c>
       <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
@@ -1375,7 +1553,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -1403,7 +1581,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>30</v>
       </c>
@@ -1430,8 +1608,11 @@
         <v>16</v>
       </c>
       <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
@@ -1458,8 +1639,14 @@
         <v>29</v>
       </c>
       <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>32</v>
       </c>
@@ -1484,8 +1671,11 @@
         <v>38</v>
       </c>
       <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>33</v>
       </c>
@@ -1511,7 +1701,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
@@ -1534,8 +1724,11 @@
         <v>15</v>
       </c>
       <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>35</v>
       </c>
@@ -1560,8 +1753,14 @@
         <v>18</v>
       </c>
       <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>36</v>
       </c>
@@ -1586,8 +1785,11 @@
         <v>16</v>
       </c>
       <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>37</v>
       </c>
@@ -1611,7 +1813,7 @@
       </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
@@ -1637,7 +1839,7 @@
       </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
@@ -1661,7 +1863,7 @@
       </c>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>40</v>
       </c>
@@ -1687,7 +1889,7 @@
       </c>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>41</v>
       </c>
@@ -1715,7 +1917,7 @@
       </c>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>42</v>
       </c>
@@ -1736,8 +1938,11 @@
         <v>13</v>
       </c>
       <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>43</v>
       </c>
@@ -1760,8 +1965,14 @@
         <v>40</v>
       </c>
       <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>44</v>
       </c>
@@ -1786,8 +1997,11 @@
         <v>163</v>
       </c>
       <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>45</v>
       </c>
@@ -1813,7 +2027,7 @@
       </c>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>46</v>
       </c>
@@ -1841,7 +2055,7 @@
       </c>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>47</v>
       </c>
@@ -1869,7 +2083,7 @@
       </c>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>48</v>
       </c>
@@ -1895,7 +2109,7 @@
       </c>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>49</v>
       </c>
@@ -1921,7 +2135,7 @@
       </c>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>50</v>
       </c>
@@ -1947,7 +2161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>51</v>
       </c>
@@ -1970,8 +2184,11 @@
         <v>20</v>
       </c>
       <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>52</v>
       </c>
@@ -1998,8 +2215,14 @@
         <v>2498</v>
       </c>
       <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>119</v>
+      </c>
+      <c r="L46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>53</v>
       </c>
@@ -2026,8 +2249,14 @@
       <c r="J47" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>121</v>
+      </c>
+      <c r="L47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>54</v>
       </c>
@@ -2054,8 +2283,14 @@
         <v>60</v>
       </c>
       <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>122</v>
+      </c>
+      <c r="L48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>55</v>
       </c>
@@ -2082,8 +2317,14 @@
       <c r="J49" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>123</v>
+      </c>
+      <c r="L49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>56</v>
       </c>
@@ -2112,8 +2353,14 @@
       <c r="J50" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>126</v>
+      </c>
+      <c r="L50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>57</v>
       </c>
@@ -2139,7 +2386,7 @@
       </c>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>58</v>
       </c>
@@ -2169,7 +2416,7 @@
       </c>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>59</v>
       </c>
@@ -2197,7 +2444,7 @@
       </c>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>60</v>
       </c>
@@ -2223,7 +2470,7 @@
       </c>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>61</v>
       </c>
@@ -2251,7 +2498,7 @@
       </c>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>62</v>
       </c>
@@ -2281,7 +2528,7 @@
       </c>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>63</v>
       </c>
@@ -2309,7 +2556,7 @@
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>64</v>
       </c>
@@ -2331,7 +2578,7 @@
       </c>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>65</v>
       </c>
@@ -2357,7 +2604,7 @@
       </c>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>66</v>
       </c>
@@ -2383,7 +2630,7 @@
       </c>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>67</v>
       </c>
@@ -2409,7 +2656,7 @@
       </c>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>68</v>
       </c>
@@ -2431,7 +2678,7 @@
       </c>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>69</v>
       </c>
@@ -2459,7 +2706,7 @@
       </c>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>70</v>
       </c>
